--- a/stmt2c.xlsx
+++ b/stmt2c.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28705"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19120" windowHeight="9980" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19440" windowHeight="11460" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="stmt.csv" sheetId="1" r:id="rId1"/>
@@ -450,7 +450,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>

--- a/stmt2c.xlsx
+++ b/stmt2c.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28705"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19440" windowHeight="11460" tabRatio="500"/>
+    <workbookView xWindow="-20" yWindow="0" windowWidth="19520" windowHeight="11460" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="stmt.csv" sheetId="1" r:id="rId1"/>
@@ -46,9 +46,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
-    <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
-  </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -104,8 +101,8 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -450,7 +447,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C2" sqref="C2:C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -476,7 +473,7 @@
       <c r="B2" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2" s="3">
         <v>47</v>
       </c>
     </row>
@@ -487,7 +484,7 @@
       <c r="B3" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="3">
         <v>45</v>
       </c>
     </row>
@@ -498,7 +495,7 @@
       <c r="B4" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="3">
         <v>45.16</v>
       </c>
     </row>
@@ -506,10 +503,10 @@
       <c r="A5" s="1">
         <v>43062</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="3">
         <v>42</v>
       </c>
     </row>
